--- a/docentes/González Altamirano Victorino Juventino - Estadisticos 20211.xlsx
+++ b/docentes/González Altamirano Victorino Juventino - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,78 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>JUSTO</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>VENEGAS</t>
+  </si>
+  <si>
+    <t>ESPINOSA</t>
+  </si>
+  <si>
+    <t>APONTE</t>
+  </si>
+  <si>
+    <t>NEGRETE</t>
+  </si>
+  <si>
+    <t>BRYAN ABRAHAM</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>NANCY PAOLA</t>
+  </si>
+  <si>
+    <t>ANETTE JOCELYN</t>
+  </si>
+  <si>
+    <t>ANDRIK YOSIMAR</t>
+  </si>
+  <si>
+    <t>MIXTLI TONATI</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>MARIA MICHELLE</t>
   </si>
 </sst>
 </file>
@@ -555,16 +627,16 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>87.5</v>
+        <v>91.67</v>
       </c>
       <c r="H5">
         <v>6.7</v>
@@ -695,7 +767,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -835,16 +907,16 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>87.5</v>
+        <v>91.67</v>
       </c>
       <c r="H5">
         <v>6.7</v>
@@ -857,7 +929,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -890,6 +962,190 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920277</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920284</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920288</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920306</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920271</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920305</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/González Altamirano Victorino Juventino - Estadisticos 20211.xlsx
+++ b/docentes/González Altamirano Victorino Juventino - Estadisticos 20211.xlsx
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>36</v>
       </c>
       <c r="G4">
-        <v>81.81999999999999</v>
+        <v>83.72</v>
       </c>
       <c r="H4">
         <v>6.8</v>
@@ -738,10 +738,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>36</v>
@@ -878,10 +878,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="G4">
-        <v>81.81999999999999</v>
+        <v>83.72</v>
       </c>
       <c r="H4">
         <v>6.8</v>
